--- a/Android/ExcelData/EssenceStatus.xlsx
+++ b/Android/ExcelData/EssenceStatus.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4399604E-83A6-4C4E-81B0-92ECDDDE22B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B86B566-8867-4126-88B9-4894DCFDC5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="600" windowWidth="29055" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!파라메터_입력" sheetId="2" r:id="rId1"/>
-    <sheet name="!essence_status" sheetId="1" r:id="rId2"/>
+    <sheet name="essence_status" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,17 +37,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Essence_Status_Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -608,11 +604,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB3DCAC-A3E9-4E46-9600-3AA9DD43CB80}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -624,39 +620,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2661,7 +2657,7 @@
     </row>
     <row r="103" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B103" s="6">
         <f>SUM(B3:B102)</f>
@@ -2694,8 +2690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2711,27 +2707,27 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -2751,22 +2747,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">

--- a/Android/ExcelData/EssenceStatus.xlsx
+++ b/Android/ExcelData/EssenceStatus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4399604E-83A6-4C4E-81B0-92ECDDDE22B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97A4CAA-EFAF-4E7D-8106-FFBD8972484F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="600" windowWidth="29055" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40890" yWindow="1845" windowWidth="35370" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!파라메터_입력" sheetId="2" r:id="rId1"/>
@@ -37,17 +37,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Essence_Status_Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -608,11 +604,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB3DCAC-A3E9-4E46-9600-3AA9DD43CB80}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -624,39 +620,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2661,7 +2657,7 @@
     </row>
     <row r="103" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B103" s="6">
         <f>SUM(B3:B102)</f>
@@ -2694,8 +2690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2711,27 +2707,27 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -2751,22 +2747,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">

--- a/Android/ExcelData/EssenceStatus.xlsx
+++ b/Android/ExcelData/EssenceStatus.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97A4CAA-EFAF-4E7D-8106-FFBD8972484F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713683EC-DC93-4E8C-8C92-6401FD22739B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40890" yWindow="1845" windowWidth="35370" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!파라메터_입력" sheetId="2" r:id="rId1"/>
-    <sheet name="!essence_status" sheetId="1" r:id="rId2"/>
+    <sheet name="essence_status" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/Android/ExcelData/EssenceStatus.xlsx
+++ b/Android/ExcelData/EssenceStatus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713683EC-DC93-4E8C-8C92-6401FD22739B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25823A7F-9450-4425-B95B-A4677C293F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6420" yWindow="990" windowWidth="27975" windowHeight="19770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!파라메터_입력" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Essence_Status_Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,10 @@
   <si>
     <t>합산 결과</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_1:int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2691,7 +2695,7 @@
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2727,7 +2731,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
